--- a/data/pca/factorExposure/factorExposure_2011-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.007745863326743038</v>
+        <v>0.01389867949564861</v>
       </c>
       <c r="C2">
-        <v>-0.001084188320021892</v>
+        <v>0.002810488696845432</v>
       </c>
       <c r="D2">
-        <v>-0.03510057901861509</v>
+        <v>-0.007705172617776527</v>
       </c>
       <c r="E2">
-        <v>0.002385972810648568</v>
+        <v>0.01663433299033209</v>
       </c>
       <c r="F2">
-        <v>0.01451267616427735</v>
+        <v>0.01935733650625435</v>
       </c>
       <c r="G2">
-        <v>0.01380226041451709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.006349267968364929</v>
+      </c>
+      <c r="H2">
+        <v>-0.007709038186573339</v>
+      </c>
+      <c r="I2">
+        <v>0.02015726006462893</v>
+      </c>
+      <c r="J2">
+        <v>0.05879430961636659</v>
+      </c>
+      <c r="K2">
+        <v>0.02708477706654126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1058829132851013</v>
+        <v>0.1179862199877684</v>
       </c>
       <c r="C4">
-        <v>0.0235526877947945</v>
+        <v>-0.05410355738777963</v>
       </c>
       <c r="D4">
-        <v>-0.04634544915859545</v>
+        <v>0.001366514661585909</v>
       </c>
       <c r="E4">
-        <v>0.05849669606893776</v>
+        <v>0.009703159551605358</v>
       </c>
       <c r="F4">
-        <v>-0.02906370930136408</v>
+        <v>0.01850639264562974</v>
       </c>
       <c r="G4">
-        <v>0.02611109097625351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06862166982220348</v>
+      </c>
+      <c r="H4">
+        <v>-0.1385760816852199</v>
+      </c>
+      <c r="I4">
+        <v>0.02796198473098834</v>
+      </c>
+      <c r="J4">
+        <v>-0.04763355103094107</v>
+      </c>
+      <c r="K4">
+        <v>0.01347880298258539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1258833070514781</v>
+        <v>0.1231695316344024</v>
       </c>
       <c r="C6">
-        <v>0.0315578798318633</v>
+        <v>-0.006706029003274374</v>
       </c>
       <c r="D6">
-        <v>-0.02475560817003275</v>
+        <v>-0.004720888436516513</v>
       </c>
       <c r="E6">
-        <v>0.003063229314466459</v>
+        <v>-0.02687230282085701</v>
       </c>
       <c r="F6">
-        <v>0.1776340354377022</v>
+        <v>0.008306847500702107</v>
       </c>
       <c r="G6">
-        <v>-0.1379141468535285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.05674645464438371</v>
+      </c>
+      <c r="H6">
+        <v>-0.03122870391736004</v>
+      </c>
+      <c r="I6">
+        <v>-0.1362492119530879</v>
+      </c>
+      <c r="J6">
+        <v>-0.3718755920559785</v>
+      </c>
+      <c r="K6">
+        <v>-0.1652540688576873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.09080540370108307</v>
+        <v>0.08005864104999805</v>
       </c>
       <c r="C7">
-        <v>0.03801177337274739</v>
+        <v>-0.06209054066934301</v>
       </c>
       <c r="D7">
-        <v>-0.0376708775611141</v>
+        <v>-0.02741322708905472</v>
       </c>
       <c r="E7">
-        <v>0.02667341529114237</v>
+        <v>0.02327483052006586</v>
       </c>
       <c r="F7">
-        <v>0.0216162678760117</v>
+        <v>0.03564358177153107</v>
       </c>
       <c r="G7">
-        <v>0.01865677426232426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0185862610296847</v>
+      </c>
+      <c r="H7">
+        <v>-0.045678552144269</v>
+      </c>
+      <c r="I7">
+        <v>-0.01634515580921142</v>
+      </c>
+      <c r="J7">
+        <v>0.0147357254514067</v>
+      </c>
+      <c r="K7">
+        <v>0.02801702807096474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.04316976508466631</v>
+        <v>0.05257503993658247</v>
       </c>
       <c r="C8">
-        <v>-0.0286851114186138</v>
+        <v>-0.00940926132104361</v>
       </c>
       <c r="D8">
-        <v>-0.07923186639659133</v>
+        <v>-0.01291683471015391</v>
       </c>
       <c r="E8">
-        <v>0.09561324341106019</v>
+        <v>0.006605051078203406</v>
       </c>
       <c r="F8">
-        <v>-0.01058741672096279</v>
+        <v>0.007371045602085059</v>
       </c>
       <c r="G8">
-        <v>0.1333928208635289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.09582550284199735</v>
+      </c>
+      <c r="H8">
+        <v>-0.1124464239330207</v>
+      </c>
+      <c r="I8">
+        <v>0.01254914994539016</v>
+      </c>
+      <c r="J8">
+        <v>-0.03200554163013637</v>
+      </c>
+      <c r="K8">
+        <v>-0.008239070819366158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.09416374353583207</v>
+        <v>0.08955369793611648</v>
       </c>
       <c r="C9">
-        <v>0.03855776875546102</v>
+        <v>-0.050941699291906</v>
       </c>
       <c r="D9">
-        <v>-0.0341580769374174</v>
+        <v>-0.008654382175629015</v>
       </c>
       <c r="E9">
-        <v>0.04933743944894327</v>
+        <v>0.01832079167602606</v>
       </c>
       <c r="F9">
-        <v>-0.01524554207549662</v>
+        <v>0.01152745739532139</v>
       </c>
       <c r="G9">
-        <v>0.07374926704449994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06119457856862347</v>
+      </c>
+      <c r="H9">
+        <v>-0.1152447078461325</v>
+      </c>
+      <c r="I9">
+        <v>-0.006012958715119338</v>
+      </c>
+      <c r="J9">
+        <v>-0.01151545815549387</v>
+      </c>
+      <c r="K9">
+        <v>-0.01222371861030156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.03708843483980818</v>
+        <v>0.08642421378008029</v>
       </c>
       <c r="C10">
-        <v>-0.1554714966122714</v>
+        <v>0.1757748618356875</v>
       </c>
       <c r="D10">
-        <v>-0.08478025879729092</v>
+        <v>0.02962878515714463</v>
       </c>
       <c r="E10">
-        <v>0.02788483489397461</v>
+        <v>0.03866033693150481</v>
       </c>
       <c r="F10">
-        <v>0.02140203582331611</v>
+        <v>0.05049683548795222</v>
       </c>
       <c r="G10">
-        <v>0.006495671367321708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.002237205687415239</v>
+      </c>
+      <c r="H10">
+        <v>0.003721261135392245</v>
+      </c>
+      <c r="I10">
+        <v>0.002900606658931758</v>
+      </c>
+      <c r="J10">
+        <v>-0.03007911331795141</v>
+      </c>
+      <c r="K10">
+        <v>-0.01404737314435575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07682883792760729</v>
+        <v>0.079972867100221</v>
       </c>
       <c r="C11">
-        <v>0.06130648504021573</v>
+        <v>-0.06143206543653914</v>
       </c>
       <c r="D11">
-        <v>-0.01019823879136735</v>
+        <v>-0.01865135144756708</v>
       </c>
       <c r="E11">
-        <v>-0.003672332881182949</v>
+        <v>0.01867560127396611</v>
       </c>
       <c r="F11">
-        <v>0.0009960247803539018</v>
+        <v>-0.02060746390363938</v>
       </c>
       <c r="G11">
-        <v>0.1624573316948001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.07172773309562588</v>
+      </c>
+      <c r="H11">
+        <v>-0.1145837138034103</v>
+      </c>
+      <c r="I11">
+        <v>-0.04284029510413256</v>
+      </c>
+      <c r="J11">
+        <v>0.1051909841842455</v>
+      </c>
+      <c r="K11">
+        <v>-0.01459574133884732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.07244917490788821</v>
+        <v>0.08088373536997137</v>
       </c>
       <c r="C12">
-        <v>0.041115620261439</v>
+        <v>-0.06849307785695377</v>
       </c>
       <c r="D12">
-        <v>-0.001672138611785427</v>
+        <v>-0.02920030985425899</v>
       </c>
       <c r="E12">
-        <v>0.03550035251402857</v>
+        <v>0.04172368630730507</v>
       </c>
       <c r="F12">
-        <v>0.01448865513138862</v>
+        <v>-0.03000051798046239</v>
       </c>
       <c r="G12">
-        <v>0.1498125617693694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09170824360793943</v>
+      </c>
+      <c r="H12">
+        <v>-0.09873098498050409</v>
+      </c>
+      <c r="I12">
+        <v>-0.05351014229977086</v>
+      </c>
+      <c r="J12">
+        <v>0.08779439958129413</v>
+      </c>
+      <c r="K12">
+        <v>0.00354184509938001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.06467404439501515</v>
+        <v>0.04208647323316291</v>
       </c>
       <c r="C13">
-        <v>-0.0002095004228329864</v>
+        <v>-0.02571991281517424</v>
       </c>
       <c r="D13">
-        <v>-0.008702493265409637</v>
+        <v>-0.01649786700832449</v>
       </c>
       <c r="E13">
-        <v>0.02027545601142518</v>
+        <v>-0.00721299563139226</v>
       </c>
       <c r="F13">
-        <v>-0.04436687757445346</v>
+        <v>0.01982244822296365</v>
       </c>
       <c r="G13">
-        <v>0.06058752793913949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05231284898771575</v>
+      </c>
+      <c r="H13">
+        <v>-0.04660073997921205</v>
+      </c>
+      <c r="I13">
+        <v>0.003561316711833433</v>
+      </c>
+      <c r="J13">
+        <v>-0.06711146308248389</v>
+      </c>
+      <c r="K13">
+        <v>0.02000646822336953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.05432015501290417</v>
+        <v>0.04152895271732166</v>
       </c>
       <c r="C14">
-        <v>0.004789637752936489</v>
+        <v>-0.0166030361194838</v>
       </c>
       <c r="D14">
-        <v>-0.034343599877649</v>
+        <v>0.01128967445976724</v>
       </c>
       <c r="E14">
-        <v>0.02859876886496859</v>
+        <v>0.01259615072999598</v>
       </c>
       <c r="F14">
-        <v>-0.01598183955848382</v>
+        <v>-0.00762918516947194</v>
       </c>
       <c r="G14">
-        <v>0.05989794435093873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04515646961272869</v>
+      </c>
+      <c r="H14">
+        <v>-0.05342822180378447</v>
+      </c>
+      <c r="I14">
+        <v>0.04075100025746319</v>
+      </c>
+      <c r="J14">
+        <v>-0.04559905024004783</v>
+      </c>
+      <c r="K14">
+        <v>-0.03259388808073534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.03791106808802051</v>
+        <v>0.02374808913225446</v>
       </c>
       <c r="C15">
-        <v>-0.01135414930786111</v>
+        <v>-0.003850152345170165</v>
       </c>
       <c r="D15">
-        <v>-0.01323458513939146</v>
+        <v>-0.007795124123523145</v>
       </c>
       <c r="E15">
-        <v>0.007106028034962694</v>
+        <v>-0.01553910684318261</v>
       </c>
       <c r="F15">
-        <v>-0.009611214603707145</v>
+        <v>0.0343034956124332</v>
       </c>
       <c r="G15">
-        <v>0.02563959344617009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01138872525775642</v>
+      </c>
+      <c r="H15">
+        <v>-0.008178507604154393</v>
+      </c>
+      <c r="I15">
+        <v>0.01574405667104766</v>
+      </c>
+      <c r="J15">
+        <v>-0.05552835341445798</v>
+      </c>
+      <c r="K15">
+        <v>-0.008495853362995357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.07993280463709306</v>
+        <v>0.08547818058339991</v>
       </c>
       <c r="C16">
-        <v>0.07083842078046616</v>
+        <v>-0.07024349534074793</v>
       </c>
       <c r="D16">
-        <v>-0.01679969347863794</v>
+        <v>-0.02521079654759472</v>
       </c>
       <c r="E16">
-        <v>0.03364904206167637</v>
+        <v>0.02404813688832025</v>
       </c>
       <c r="F16">
-        <v>-0.04112311691645384</v>
+        <v>-0.01889219286903118</v>
       </c>
       <c r="G16">
-        <v>0.1228186101390823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.09898008088969862</v>
+      </c>
+      <c r="H16">
+        <v>-0.09918030185695428</v>
+      </c>
+      <c r="I16">
+        <v>-0.05450423082381457</v>
+      </c>
+      <c r="J16">
+        <v>0.1189946087992853</v>
+      </c>
+      <c r="K16">
+        <v>-0.0264181399205995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.05118957498544787</v>
+        <v>0.04952630158979492</v>
       </c>
       <c r="C20">
-        <v>0.0238139324089384</v>
+        <v>-0.03059120150265639</v>
       </c>
       <c r="D20">
-        <v>-0.0170793721658841</v>
+        <v>0.0131111958739471</v>
       </c>
       <c r="E20">
-        <v>0.02485810835965588</v>
+        <v>-0.0009473767647541856</v>
       </c>
       <c r="F20">
-        <v>-0.001225519724271613</v>
+        <v>0.01794850652002604</v>
       </c>
       <c r="G20">
-        <v>0.1098336718589129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03757525221222511</v>
+      </c>
+      <c r="H20">
+        <v>-0.05422960157030398</v>
+      </c>
+      <c r="I20">
+        <v>0.02349495756523052</v>
+      </c>
+      <c r="J20">
+        <v>-0.03321559082406879</v>
+      </c>
+      <c r="K20">
+        <v>-0.01267924006998765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.02737903145022456</v>
+        <v>0.02976524913544164</v>
       </c>
       <c r="C21">
-        <v>0.03942737531414783</v>
+        <v>-0.01990887074905883</v>
       </c>
       <c r="D21">
-        <v>0.006267790589881064</v>
+        <v>0.02934309868173323</v>
       </c>
       <c r="E21">
-        <v>0.0159009606566888</v>
+        <v>-0.01408338643621999</v>
       </c>
       <c r="F21">
-        <v>0.07701219991454451</v>
+        <v>-0.009833603265361441</v>
       </c>
       <c r="G21">
-        <v>-0.08524992672773359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04168124784887151</v>
+      </c>
+      <c r="H21">
+        <v>-0.07125256448521498</v>
+      </c>
+      <c r="I21">
+        <v>-0.02823067403514418</v>
+      </c>
+      <c r="J21">
+        <v>-0.07753344145457218</v>
+      </c>
+      <c r="K21">
+        <v>0.06780412870634553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.04164433678663055</v>
+        <v>0.03570063701815324</v>
       </c>
       <c r="C22">
-        <v>0.01033219759639325</v>
+        <v>-4.054667921471874e-05</v>
       </c>
       <c r="D22">
-        <v>0.0110070503530382</v>
+        <v>-0.08878176352128535</v>
       </c>
       <c r="E22">
-        <v>0.5427649380242406</v>
+        <v>-0.3370141496290089</v>
       </c>
       <c r="F22">
-        <v>-0.1507025760871614</v>
+        <v>0.5480459001968362</v>
       </c>
       <c r="G22">
-        <v>-0.3324155365543116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1272261689737862</v>
+      </c>
+      <c r="H22">
+        <v>0.1395512725282173</v>
+      </c>
+      <c r="I22">
+        <v>-0.04134828880974776</v>
+      </c>
+      <c r="J22">
+        <v>0.08003948006496261</v>
+      </c>
+      <c r="K22">
+        <v>-0.0003327392163853422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.04175568420748622</v>
+        <v>0.03590567740853343</v>
       </c>
       <c r="C23">
-        <v>0.01086536980508856</v>
+        <v>-0.0005179905743462813</v>
       </c>
       <c r="D23">
-        <v>0.009370296368622978</v>
+        <v>-0.08992739296945836</v>
       </c>
       <c r="E23">
-        <v>0.5418909946347238</v>
+        <v>-0.3383192728811643</v>
       </c>
       <c r="F23">
-        <v>-0.1512625206426411</v>
+        <v>0.5498067676648939</v>
       </c>
       <c r="G23">
-        <v>-0.3330384148484993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1284231851276382</v>
+      </c>
+      <c r="H23">
+        <v>0.1358975691665623</v>
+      </c>
+      <c r="I23">
+        <v>-0.04038662523016387</v>
+      </c>
+      <c r="J23">
+        <v>0.07868032253184162</v>
+      </c>
+      <c r="K23">
+        <v>-0.004122248736777565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08373471438803667</v>
+        <v>0.08775635888492679</v>
       </c>
       <c r="C24">
-        <v>0.04976967310422017</v>
+        <v>-0.06066372625294785</v>
       </c>
       <c r="D24">
-        <v>-0.02241989621554925</v>
+        <v>-0.01034764808187285</v>
       </c>
       <c r="E24">
-        <v>0.03763229976327095</v>
+        <v>0.02280955631459454</v>
       </c>
       <c r="F24">
-        <v>0.006383108896969966</v>
+        <v>-0.01170820581760362</v>
       </c>
       <c r="G24">
-        <v>0.1250940220120864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.08447341282255627</v>
+      </c>
+      <c r="H24">
+        <v>-0.09690021279570189</v>
+      </c>
+      <c r="I24">
+        <v>-0.05932690318907516</v>
+      </c>
+      <c r="J24">
+        <v>0.1244961530398247</v>
+      </c>
+      <c r="K24">
+        <v>-0.04597175093427366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.07556125946889378</v>
+        <v>0.0891120259315865</v>
       </c>
       <c r="C25">
-        <v>0.02058412722809906</v>
+        <v>-0.0466792039978453</v>
       </c>
       <c r="D25">
-        <v>-0.02346536827249062</v>
+        <v>-0.02189384142737682</v>
       </c>
       <c r="E25">
-        <v>0.03128406800072987</v>
+        <v>0.04929111142755475</v>
       </c>
       <c r="F25">
-        <v>0.01577265738249311</v>
+        <v>-0.02836360687471367</v>
       </c>
       <c r="G25">
-        <v>0.1179982309917975</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.09597802972073446</v>
+      </c>
+      <c r="H25">
+        <v>-0.0871426853741379</v>
+      </c>
+      <c r="I25">
+        <v>-0.03946030259433418</v>
+      </c>
+      <c r="J25">
+        <v>0.08996760021430576</v>
+      </c>
+      <c r="K25">
+        <v>-0.01091675090804428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05067998659785117</v>
+        <v>0.04148941170827069</v>
       </c>
       <c r="C26">
-        <v>0.02638974976183892</v>
+        <v>0.0003802709103520921</v>
       </c>
       <c r="D26">
-        <v>-0.03160187116989654</v>
+        <v>0.019220193065069</v>
       </c>
       <c r="E26">
-        <v>0.01615499852915605</v>
+        <v>-0.01829311087864599</v>
       </c>
       <c r="F26">
-        <v>-0.01334119178770841</v>
+        <v>0.002728150073880635</v>
       </c>
       <c r="G26">
-        <v>0.06618577144349198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.04395440603133635</v>
+      </c>
+      <c r="H26">
+        <v>-0.03286771549720861</v>
+      </c>
+      <c r="I26">
+        <v>0.02935322003348682</v>
+      </c>
+      <c r="J26">
+        <v>-0.03767067095793201</v>
+      </c>
+      <c r="K26">
+        <v>-0.02938554662611631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.0609906732559231</v>
+        <v>0.09913150674511748</v>
       </c>
       <c r="C28">
-        <v>-0.2973233596953626</v>
+        <v>0.3166639743340835</v>
       </c>
       <c r="D28">
-        <v>-0.05645274902598783</v>
+        <v>-0.01037227794439079</v>
       </c>
       <c r="E28">
-        <v>-0.02410387191138099</v>
+        <v>0.02196722751169245</v>
       </c>
       <c r="F28">
-        <v>0.05616112250012902</v>
+        <v>-0.005658287918646359</v>
       </c>
       <c r="G28">
-        <v>-0.0272841464303919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02403747859918493</v>
+      </c>
+      <c r="H28">
+        <v>-0.0146910837410196</v>
+      </c>
+      <c r="I28">
+        <v>-0.01568770724404906</v>
+      </c>
+      <c r="J28">
+        <v>0.003345654187927715</v>
+      </c>
+      <c r="K28">
+        <v>0.00886225317474763</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05894328329429358</v>
+        <v>0.03856233040276889</v>
       </c>
       <c r="C29">
-        <v>0.005249874587885901</v>
+        <v>-0.01422557870840796</v>
       </c>
       <c r="D29">
-        <v>-0.02849751013867581</v>
+        <v>-0.001153902105096068</v>
       </c>
       <c r="E29">
-        <v>0.04347293295787561</v>
+        <v>0.02903514458219987</v>
       </c>
       <c r="F29">
-        <v>-0.03326965960323184</v>
+        <v>0.004568491058029524</v>
       </c>
       <c r="G29">
-        <v>0.04202812484660783</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0856811525189454</v>
+      </c>
+      <c r="H29">
+        <v>-0.0445894426909393</v>
+      </c>
+      <c r="I29">
+        <v>0.02102403451871178</v>
+      </c>
+      <c r="J29">
+        <v>-0.04297769891704639</v>
+      </c>
+      <c r="K29">
+        <v>-0.04615899539818062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1125999566728186</v>
+        <v>0.1080215724556217</v>
       </c>
       <c r="C30">
-        <v>-0.02051732666540871</v>
+        <v>-0.05119049512718028</v>
       </c>
       <c r="D30">
-        <v>-0.07452514064859556</v>
+        <v>-0.03955596002556262</v>
       </c>
       <c r="E30">
-        <v>0.2156227051516109</v>
+        <v>-0.008458304874681882</v>
       </c>
       <c r="F30">
-        <v>0.09049888177086848</v>
+        <v>-0.01825526392921009</v>
       </c>
       <c r="G30">
-        <v>0.1190702793234519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1803708550150422</v>
+      </c>
+      <c r="H30">
+        <v>-0.1086706593798416</v>
+      </c>
+      <c r="I30">
+        <v>-0.188373205462624</v>
+      </c>
+      <c r="J30">
+        <v>-0.01825193236203124</v>
+      </c>
+      <c r="K30">
+        <v>0.0401597642258329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05836459067318082</v>
+        <v>0.03790116652186977</v>
       </c>
       <c r="C31">
-        <v>0.01522081764475465</v>
+        <v>-0.02901070331208441</v>
       </c>
       <c r="D31">
-        <v>0.0096177362048834</v>
+        <v>-0.001812255469259783</v>
       </c>
       <c r="E31">
-        <v>0.00369848063306325</v>
+        <v>-0.003668567928653329</v>
       </c>
       <c r="F31">
-        <v>-0.03730046141993586</v>
+        <v>0.00232041737871339</v>
       </c>
       <c r="G31">
-        <v>0.00884786523507442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01407076633962737</v>
+      </c>
+      <c r="H31">
+        <v>-0.02426946402797053</v>
+      </c>
+      <c r="I31">
+        <v>0.03735662493102358</v>
+      </c>
+      <c r="J31">
+        <v>-0.00202741809694047</v>
+      </c>
+      <c r="K31">
+        <v>-0.05747495786752046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04018963332500942</v>
+        <v>0.05482549250785943</v>
       </c>
       <c r="C32">
-        <v>-0.02237666626217955</v>
+        <v>0.002809473245314175</v>
       </c>
       <c r="D32">
-        <v>-0.0009982018521623442</v>
+        <v>0.01744426894183286</v>
       </c>
       <c r="E32">
-        <v>0.08487994251262684</v>
+        <v>-0.01054337153780422</v>
       </c>
       <c r="F32">
-        <v>-0.1399617186721704</v>
+        <v>-0.055924112661381</v>
       </c>
       <c r="G32">
-        <v>0.05418493661121113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.0221247690942726</v>
+      </c>
+      <c r="H32">
+        <v>-0.03607156689547242</v>
+      </c>
+      <c r="I32">
+        <v>-0.0002328832545727909</v>
+      </c>
+      <c r="J32">
+        <v>-0.008830224932216165</v>
+      </c>
+      <c r="K32">
+        <v>-0.01261903873900055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1109506183009726</v>
+        <v>0.1027261851801819</v>
       </c>
       <c r="C33">
-        <v>0.01557716791804644</v>
+        <v>-0.05333871886384441</v>
       </c>
       <c r="D33">
-        <v>0.01000483368960172</v>
+        <v>-0.06983871576089977</v>
       </c>
       <c r="E33">
-        <v>0.01057996874537111</v>
+        <v>0.02482024521250105</v>
       </c>
       <c r="F33">
-        <v>-0.03073700497940658</v>
+        <v>-0.01676291505812717</v>
       </c>
       <c r="G33">
-        <v>0.06771264597964018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03439455329971051</v>
+      </c>
+      <c r="H33">
+        <v>-0.05080624337877351</v>
+      </c>
+      <c r="I33">
+        <v>-0.006244825038144561</v>
+      </c>
+      <c r="J33">
+        <v>0.02406332269219845</v>
+      </c>
+      <c r="K33">
+        <v>-0.01385742226182362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06703515375007912</v>
+        <v>0.07335834214454232</v>
       </c>
       <c r="C34">
-        <v>0.04516275425479869</v>
+        <v>-0.05486075675720044</v>
       </c>
       <c r="D34">
-        <v>-0.01011648081017845</v>
+        <v>-0.01647094242387726</v>
       </c>
       <c r="E34">
-        <v>0.007662228295178715</v>
+        <v>0.02454582360818171</v>
       </c>
       <c r="F34">
-        <v>-0.02292732642241197</v>
+        <v>-0.01831781112196314</v>
       </c>
       <c r="G34">
-        <v>0.09654598715490492</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.08718607034384855</v>
+      </c>
+      <c r="H34">
+        <v>-0.09351426641035153</v>
+      </c>
+      <c r="I34">
+        <v>-0.03820536848087308</v>
+      </c>
+      <c r="J34">
+        <v>0.09051810930299593</v>
+      </c>
+      <c r="K34">
+        <v>-0.01175490667952135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04553993446430285</v>
+        <v>0.02021800474893802</v>
       </c>
       <c r="C35">
-        <v>0.008097910825503173</v>
+        <v>-0.01466789202684956</v>
       </c>
       <c r="D35">
-        <v>0.02018229672390392</v>
+        <v>-0.005474294627483617</v>
       </c>
       <c r="E35">
-        <v>0.01241968432329867</v>
+        <v>0.004615837522688759</v>
       </c>
       <c r="F35">
-        <v>0.04128386402294042</v>
+        <v>-0.002091631139580967</v>
       </c>
       <c r="G35">
-        <v>0.04816059166566214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05615119596067049</v>
+      </c>
+      <c r="H35">
+        <v>-0.02630683551155298</v>
+      </c>
+      <c r="I35">
+        <v>0.009606954004064397</v>
+      </c>
+      <c r="J35">
+        <v>-0.02032352636243263</v>
+      </c>
+      <c r="K35">
+        <v>0.02546611882587696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03824005365313106</v>
+        <v>0.0303276586424291</v>
       </c>
       <c r="C36">
-        <v>0.002398699205912489</v>
+        <v>-0.009901633078938507</v>
       </c>
       <c r="D36">
-        <v>-0.01981392803085313</v>
+        <v>-0.004583982436992658</v>
       </c>
       <c r="E36">
-        <v>0.03666066784414641</v>
+        <v>-0.008366577474248004</v>
       </c>
       <c r="F36">
-        <v>-0.00250010445370498</v>
+        <v>0.004222906998064051</v>
       </c>
       <c r="G36">
-        <v>0.05450415907395575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04551659424920858</v>
+      </c>
+      <c r="H36">
+        <v>-0.05270486189615847</v>
+      </c>
+      <c r="I36">
+        <v>0.0003498503563730733</v>
+      </c>
+      <c r="J36">
+        <v>-0.02879589458988161</v>
+      </c>
+      <c r="K36">
+        <v>-0.02775218790868966</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.05560051926393281</v>
+        <v>0.02136570420642836</v>
       </c>
       <c r="C38">
-        <v>0.01663929267701541</v>
+        <v>-0.01866170548363168</v>
       </c>
       <c r="D38">
-        <v>-0.007682149049672489</v>
+        <v>-0.0122491017259347</v>
       </c>
       <c r="E38">
-        <v>0.006009561025768557</v>
+        <v>0.0002367006501130731</v>
       </c>
       <c r="F38">
-        <v>-0.0155494863617957</v>
+        <v>0.0236829484073211</v>
       </c>
       <c r="G38">
-        <v>0.05514754316073971</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01440850245921467</v>
+      </c>
+      <c r="H38">
+        <v>0.04266547019876058</v>
+      </c>
+      <c r="I38">
+        <v>0.0001035625428515321</v>
+      </c>
+      <c r="J38">
+        <v>-0.01880990548385373</v>
+      </c>
+      <c r="K38">
+        <v>-0.04919807494298169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1089815198768356</v>
+        <v>0.1228725976782691</v>
       </c>
       <c r="C39">
-        <v>0.03933668817818148</v>
+        <v>-0.0902596569070257</v>
       </c>
       <c r="D39">
-        <v>-0.0057785388896952</v>
+        <v>-0.04925614384478511</v>
       </c>
       <c r="E39">
-        <v>0.07312883582291996</v>
+        <v>0.07510318950079525</v>
       </c>
       <c r="F39">
-        <v>-0.004934215773810355</v>
+        <v>-0.07806581777359325</v>
       </c>
       <c r="G39">
-        <v>0.1444183781568416</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1312853689179392</v>
+      </c>
+      <c r="H39">
+        <v>-0.07974401172755485</v>
+      </c>
+      <c r="I39">
+        <v>-0.06324891838287831</v>
+      </c>
+      <c r="J39">
+        <v>0.1559810036579527</v>
+      </c>
+      <c r="K39">
+        <v>0.0589451721174338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.05131900182954458</v>
+        <v>0.0207649833820257</v>
       </c>
       <c r="C40">
-        <v>0.02272133007440732</v>
+        <v>-0.03443085774447917</v>
       </c>
       <c r="D40">
-        <v>0.02291682958632331</v>
+        <v>0.002339474819752172</v>
       </c>
       <c r="E40">
-        <v>0.1080858731591765</v>
+        <v>-0.03830149177244651</v>
       </c>
       <c r="F40">
-        <v>0.04675901101780151</v>
+        <v>0.05602014392800504</v>
       </c>
       <c r="G40">
-        <v>0.2331678906768162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.06871565501105378</v>
+      </c>
+      <c r="H40">
+        <v>-0.09771666251178991</v>
+      </c>
+      <c r="I40">
+        <v>-0.05858073132998252</v>
+      </c>
+      <c r="J40">
+        <v>-0.06613142848107495</v>
+      </c>
+      <c r="K40">
+        <v>-0.02694560201871999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.04814762339033007</v>
+        <v>0.03085926963354608</v>
       </c>
       <c r="C41">
-        <v>0.02847999600851111</v>
+        <v>-0.01367917308904841</v>
       </c>
       <c r="D41">
-        <v>-0.00081410849912151</v>
+        <v>0.009927981430078817</v>
       </c>
       <c r="E41">
-        <v>-0.01152070854344488</v>
+        <v>0.01195306816886079</v>
       </c>
       <c r="F41">
-        <v>-0.02491951146012674</v>
+        <v>-0.002633108615489527</v>
       </c>
       <c r="G41">
-        <v>0.06852409085859346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01273950512546069</v>
+      </c>
+      <c r="H41">
+        <v>-0.015976925268987</v>
+      </c>
+      <c r="I41">
+        <v>0.02062853458244645</v>
+      </c>
+      <c r="J41">
+        <v>-0.008182786263767403</v>
+      </c>
+      <c r="K41">
+        <v>-0.04231580061347833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.07295385977676401</v>
+        <v>0.04711729029727414</v>
       </c>
       <c r="C43">
-        <v>0.02942276346603471</v>
+        <v>-0.01839608792892483</v>
       </c>
       <c r="D43">
-        <v>-0.01920018763919764</v>
+        <v>-0.01461587441438911</v>
       </c>
       <c r="E43">
-        <v>0.02235632082995332</v>
+        <v>0.004531868016375241</v>
       </c>
       <c r="F43">
-        <v>-0.02454719805420968</v>
+        <v>0.009980884540480704</v>
       </c>
       <c r="G43">
-        <v>0.008837424471887376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02945809912972486</v>
+      </c>
+      <c r="H43">
+        <v>-0.003306768408939273</v>
+      </c>
+      <c r="I43">
+        <v>0.01114191545099382</v>
+      </c>
+      <c r="J43">
+        <v>-0.001054887316304832</v>
+      </c>
+      <c r="K43">
+        <v>-0.05242657746167793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.07399211965114408</v>
+        <v>0.1165264868435477</v>
       </c>
       <c r="C44">
-        <v>0.01692949545691664</v>
+        <v>-0.0909831783071188</v>
       </c>
       <c r="D44">
-        <v>-0.09438228352389517</v>
+        <v>-0.04239722323308441</v>
       </c>
       <c r="E44">
-        <v>0.06020700362090328</v>
+        <v>0.0210835770311128</v>
       </c>
       <c r="F44">
-        <v>-0.04517783184353711</v>
+        <v>0.1167049174099724</v>
       </c>
       <c r="G44">
-        <v>0.1065369234582764</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2266767253879808</v>
+      </c>
+      <c r="H44">
+        <v>-0.1239058045551085</v>
+      </c>
+      <c r="I44">
+        <v>-0.1330607363660973</v>
+      </c>
+      <c r="J44">
+        <v>-0.02855413716362094</v>
+      </c>
+      <c r="K44">
+        <v>0.03769300225791689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.04987412064640707</v>
+        <v>0.02748955584968658</v>
       </c>
       <c r="C46">
-        <v>0.03906976779663967</v>
+        <v>-0.01228467797076463</v>
       </c>
       <c r="D46">
-        <v>-0.02783710579705531</v>
+        <v>-0.01164873303026203</v>
       </c>
       <c r="E46">
-        <v>0.04834794652612588</v>
+        <v>7.617642597988633e-06</v>
       </c>
       <c r="F46">
-        <v>-0.02103640217895264</v>
+        <v>0.04335259927749494</v>
       </c>
       <c r="G46">
-        <v>0.02819604357878333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05176616528498252</v>
+      </c>
+      <c r="H46">
+        <v>-0.02949611014444138</v>
+      </c>
+      <c r="I46">
+        <v>0.01546986463320765</v>
+      </c>
+      <c r="J46">
+        <v>-0.03657040887795373</v>
+      </c>
+      <c r="K46">
+        <v>-0.02184907640225527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.04858744750366588</v>
+        <v>0.04129660290849076</v>
       </c>
       <c r="C47">
-        <v>-0.0004233040891512533</v>
+        <v>-0.01486059185803221</v>
       </c>
       <c r="D47">
-        <v>-0.005320519708325367</v>
+        <v>-0.001899766154634776</v>
       </c>
       <c r="E47">
-        <v>0.06366834281630994</v>
+        <v>-0.008515854890186695</v>
       </c>
       <c r="F47">
-        <v>-0.003704669366087001</v>
+        <v>0.009906201907795509</v>
       </c>
       <c r="G47">
-        <v>-0.007273780273250076</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04548288125422853</v>
+      </c>
+      <c r="H47">
+        <v>-0.02598905795515177</v>
+      </c>
+      <c r="I47">
+        <v>0.01898103460916091</v>
+      </c>
+      <c r="J47">
+        <v>-0.04495989852691792</v>
+      </c>
+      <c r="K47">
+        <v>-0.0224196264314742</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04392468431238809</v>
+        <v>0.03765660739263095</v>
       </c>
       <c r="C48">
-        <v>-0.001151497780264291</v>
+        <v>-0.001037088359620289</v>
       </c>
       <c r="D48">
-        <v>0.006465495465287097</v>
+        <v>-0.008867575197552631</v>
       </c>
       <c r="E48">
-        <v>0.04048458540593664</v>
+        <v>-0.001888569950059047</v>
       </c>
       <c r="F48">
-        <v>-0.002384674944030629</v>
+        <v>0.0004280827177912738</v>
       </c>
       <c r="G48">
-        <v>0.04206335388650281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.04941445467912238</v>
+      </c>
+      <c r="H48">
+        <v>-0.04192994663354135</v>
+      </c>
+      <c r="I48">
+        <v>0.02192303921803418</v>
+      </c>
+      <c r="J48">
+        <v>-0.04180956351508116</v>
+      </c>
+      <c r="K48">
+        <v>0.01923280133577005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.2361634401979597</v>
+        <v>0.2313471127739467</v>
       </c>
       <c r="C49">
-        <v>0.08215665364237375</v>
+        <v>-0.03567019468105487</v>
       </c>
       <c r="D49">
-        <v>-0.02744390660640443</v>
+        <v>0.05948113550610248</v>
       </c>
       <c r="E49">
-        <v>-0.1060167217475687</v>
+        <v>0.05797651710857565</v>
       </c>
       <c r="F49">
-        <v>0.106747502333888</v>
+        <v>0.005207717027204206</v>
       </c>
       <c r="G49">
-        <v>-0.1225562764655441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2152798850922951</v>
+      </c>
+      <c r="H49">
+        <v>0.1602561644722265</v>
+      </c>
+      <c r="I49">
+        <v>-0.2388360244569463</v>
+      </c>
+      <c r="J49">
+        <v>0.1888805537140871</v>
+      </c>
+      <c r="K49">
+        <v>-0.05935037059449118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.05436628975768554</v>
+        <v>0.04297150118333358</v>
       </c>
       <c r="C50">
-        <v>0.01228270659304882</v>
+        <v>-0.02136915777335721</v>
       </c>
       <c r="D50">
-        <v>0.002292330809536938</v>
+        <v>0.006579381729880485</v>
       </c>
       <c r="E50">
-        <v>0.02263241689765469</v>
+        <v>-0.003699038413091654</v>
       </c>
       <c r="F50">
-        <v>-0.0500161129805589</v>
+        <v>0.0006002811636367355</v>
       </c>
       <c r="G50">
-        <v>0.007347095371198182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.04112693462405678</v>
+      </c>
+      <c r="H50">
+        <v>-0.03262417426988951</v>
+      </c>
+      <c r="I50">
+        <v>0.01824326515276935</v>
+      </c>
+      <c r="J50">
+        <v>-0.009461992206956461</v>
+      </c>
+      <c r="K50">
+        <v>-0.04743838998233946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03810831329768417</v>
+        <v>0.01942902794532622</v>
       </c>
       <c r="C51">
-        <v>0.009986209945913678</v>
+        <v>0.004127528682628943</v>
       </c>
       <c r="D51">
-        <v>-0.01694829968950522</v>
+        <v>-0.01364504248716966</v>
       </c>
       <c r="E51">
-        <v>-0.01164657102310021</v>
+        <v>0.01319195204146882</v>
       </c>
       <c r="F51">
-        <v>-0.0164542778277533</v>
+        <v>0.01547999259684233</v>
       </c>
       <c r="G51">
-        <v>-0.01069552678313802</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02795580884009649</v>
+      </c>
+      <c r="H51">
+        <v>0.004659485013226209</v>
+      </c>
+      <c r="I51">
+        <v>-0.02513942861022816</v>
+      </c>
+      <c r="J51">
+        <v>0.02282763524768759</v>
+      </c>
+      <c r="K51">
+        <v>-0.012346327299157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.07548153795031165</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.04274219450371717</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0004111439044073353</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01647358918307662</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01416948652287101</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.05979615395840224</v>
+      </c>
+      <c r="H52">
+        <v>0.03844600064661145</v>
+      </c>
+      <c r="I52">
+        <v>0.1399404322365373</v>
+      </c>
+      <c r="J52">
+        <v>0.02900525311729616</v>
+      </c>
+      <c r="K52">
+        <v>0.05308679064304522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.1625789490118925</v>
+        <v>0.1634101655682626</v>
       </c>
       <c r="C53">
-        <v>-0.006458500303275122</v>
+        <v>-0.02796382789653071</v>
       </c>
       <c r="D53">
-        <v>-0.01742090942441296</v>
+        <v>-0.009068039870843087</v>
       </c>
       <c r="E53">
-        <v>-0.0673027624281464</v>
+        <v>0.02232507337628164</v>
       </c>
       <c r="F53">
-        <v>-0.2336170530704408</v>
+        <v>0.01326824315349934</v>
       </c>
       <c r="G53">
-        <v>-0.03232504085568516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01075174217441817</v>
+      </c>
+      <c r="H53">
+        <v>0.1052400226464741</v>
+      </c>
+      <c r="I53">
+        <v>0.2688775402259487</v>
+      </c>
+      <c r="J53">
+        <v>0.03301552474006933</v>
+      </c>
+      <c r="K53">
+        <v>-0.09687996508873688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.0541169719314297</v>
+        <v>0.05174590400772863</v>
       </c>
       <c r="C54">
-        <v>0.008244217658361232</v>
+        <v>-0.02832341654462966</v>
       </c>
       <c r="D54">
-        <v>-0.01886189467465359</v>
+        <v>0.002534957014288022</v>
       </c>
       <c r="E54">
-        <v>0.04298355950148952</v>
+        <v>-0.0109096289619722</v>
       </c>
       <c r="F54">
-        <v>-0.01578536977139324</v>
+        <v>0.0239709551112912</v>
       </c>
       <c r="G54">
-        <v>0.06998144682289839</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.06416792068969257</v>
+      </c>
+      <c r="H54">
+        <v>-0.1205587013979302</v>
+      </c>
+      <c r="I54">
+        <v>0.04810518204404027</v>
+      </c>
+      <c r="J54">
+        <v>-0.1170333069320712</v>
+      </c>
+      <c r="K54">
+        <v>-0.01170030063479191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09599745271033301</v>
+        <v>0.08733191621661281</v>
       </c>
       <c r="C55">
-        <v>0.01060887325826446</v>
+        <v>-0.02665392941178417</v>
       </c>
       <c r="D55">
-        <v>-0.0245606935258853</v>
+        <v>-0.05223331055226695</v>
       </c>
       <c r="E55">
-        <v>-0.01350272450752669</v>
+        <v>0.03556173686041318</v>
       </c>
       <c r="F55">
-        <v>-0.179751091233896</v>
+        <v>-0.006165640475485567</v>
       </c>
       <c r="G55">
-        <v>0.01023887207765824</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01609553212563388</v>
+      </c>
+      <c r="H55">
+        <v>0.01657952202444253</v>
+      </c>
+      <c r="I55">
+        <v>0.1634453244824833</v>
+      </c>
+      <c r="J55">
+        <v>0.01480300954761136</v>
+      </c>
+      <c r="K55">
+        <v>-0.0543424757815616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1634569530613571</v>
+        <v>0.1599421837191862</v>
       </c>
       <c r="C56">
-        <v>-0.003694479263118801</v>
+        <v>-0.039708662094517</v>
       </c>
       <c r="D56">
-        <v>-0.008579770279548709</v>
+        <v>-0.01803216904067868</v>
       </c>
       <c r="E56">
-        <v>-0.07220784220662838</v>
+        <v>0.04406363364021571</v>
       </c>
       <c r="F56">
-        <v>-0.2414626462336254</v>
+        <v>0.003754807712875496</v>
       </c>
       <c r="G56">
-        <v>-0.03462242894117536</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0406851649504264</v>
+      </c>
+      <c r="H56">
+        <v>0.07059272124157674</v>
+      </c>
+      <c r="I56">
+        <v>0.2072008199124152</v>
+      </c>
+      <c r="J56">
+        <v>0.05097836640047512</v>
+      </c>
+      <c r="K56">
+        <v>-0.1273907500044668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.01939500968895406</v>
+        <v>0.03991260988371253</v>
       </c>
       <c r="C58">
-        <v>0.0736450104127334</v>
+        <v>-0.03226173175451169</v>
       </c>
       <c r="D58">
-        <v>0.0314093299399702</v>
+        <v>-0.01340005539875129</v>
       </c>
       <c r="E58">
-        <v>0.2576323308778549</v>
+        <v>-0.05488462474470698</v>
       </c>
       <c r="F58">
-        <v>0.3432443619046588</v>
+        <v>0.06082132574659898</v>
       </c>
       <c r="G58">
-        <v>0.08851391045631483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1186790078219205</v>
+      </c>
+      <c r="H58">
+        <v>0.00654709287246856</v>
+      </c>
+      <c r="I58">
+        <v>-0.05532704380193181</v>
+      </c>
+      <c r="J58">
+        <v>-0.1109546476553405</v>
+      </c>
+      <c r="K58">
+        <v>0.2071226109158891</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1518101812790237</v>
+        <v>0.1744845951597515</v>
       </c>
       <c r="C59">
-        <v>-0.3851262437387319</v>
+        <v>0.3013359914475518</v>
       </c>
       <c r="D59">
-        <v>-0.07426926750985897</v>
+        <v>-0.02924131023730216</v>
       </c>
       <c r="E59">
-        <v>-0.0597229819035575</v>
+        <v>0.05932066110577707</v>
       </c>
       <c r="F59">
-        <v>-0.01357589756477552</v>
+        <v>-0.0161575998814043</v>
       </c>
       <c r="G59">
-        <v>0.04948186430974587</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02324126753405147</v>
+      </c>
+      <c r="H59">
+        <v>-0.05496932639489652</v>
+      </c>
+      <c r="I59">
+        <v>0.03079514611018479</v>
+      </c>
+      <c r="J59">
+        <v>0.0619845838486539</v>
+      </c>
+      <c r="K59">
+        <v>-0.02810909938793459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2674678384436954</v>
+        <v>0.2752210238495789</v>
       </c>
       <c r="C60">
-        <v>0.06740410698574964</v>
+        <v>-0.1430289403355617</v>
       </c>
       <c r="D60">
-        <v>-0.07528141296137601</v>
+        <v>0.04736707172103743</v>
       </c>
       <c r="E60">
-        <v>-0.07779819245045128</v>
+        <v>0.1327067550593182</v>
       </c>
       <c r="F60">
-        <v>0.0846111197675619</v>
+        <v>0.0349880624481431</v>
       </c>
       <c r="G60">
-        <v>-0.1775551414390445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04931870057494474</v>
+      </c>
+      <c r="H60">
+        <v>0.2237002776126563</v>
+      </c>
+      <c r="I60">
+        <v>-0.2665342849587259</v>
+      </c>
+      <c r="J60">
+        <v>0.0221013258328563</v>
+      </c>
+      <c r="K60">
+        <v>0.04416424491864328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.09566059919386753</v>
+        <v>0.1117579575549587</v>
       </c>
       <c r="C61">
-        <v>0.01952085190697143</v>
+        <v>-0.05306753031643747</v>
       </c>
       <c r="D61">
-        <v>8.168873660066347e-05</v>
+        <v>-0.03182554807050888</v>
       </c>
       <c r="E61">
-        <v>0.021101658477591</v>
+        <v>0.06352260997735197</v>
       </c>
       <c r="F61">
-        <v>-0.02050090150323843</v>
+        <v>-0.03405091281103116</v>
       </c>
       <c r="G61">
-        <v>0.06443624835779253</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1127011973801533</v>
+      </c>
+      <c r="H61">
+        <v>-0.09932842052599053</v>
+      </c>
+      <c r="I61">
+        <v>-0.002569766609162542</v>
+      </c>
+      <c r="J61">
+        <v>0.1124965594096016</v>
+      </c>
+      <c r="K61">
+        <v>0.01247496477595471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1481886116416355</v>
+        <v>0.1553609324865469</v>
       </c>
       <c r="C62">
-        <v>0.01407621169857045</v>
+        <v>-0.03853316399435485</v>
       </c>
       <c r="D62">
-        <v>0.02240973613029455</v>
+        <v>-0.02646064221506089</v>
       </c>
       <c r="E62">
-        <v>-0.1289606543575884</v>
+        <v>0.03480701972621539</v>
       </c>
       <c r="F62">
-        <v>-0.1977759278181557</v>
+        <v>-0.01209600648928448</v>
       </c>
       <c r="G62">
-        <v>0.004786185187505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02746120760941071</v>
+      </c>
+      <c r="H62">
+        <v>0.09142499849126326</v>
+      </c>
+      <c r="I62">
+        <v>0.2133613301148255</v>
+      </c>
+      <c r="J62">
+        <v>0.002475266398146875</v>
+      </c>
+      <c r="K62">
+        <v>-0.07100969585646752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.04282450158242972</v>
+        <v>0.03833574356044127</v>
       </c>
       <c r="C63">
-        <v>0.01760888677238548</v>
+        <v>-0.0008482702117965599</v>
       </c>
       <c r="D63">
-        <v>0.01013133377732481</v>
+        <v>-0.01066543746227665</v>
       </c>
       <c r="E63">
-        <v>0.01418181908563286</v>
+        <v>-0.02284055776523545</v>
       </c>
       <c r="F63">
-        <v>-0.01296253316756201</v>
+        <v>-0.0178238828999017</v>
       </c>
       <c r="G63">
-        <v>0.04143538565557001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02945209015615723</v>
+      </c>
+      <c r="H63">
+        <v>-0.05718748036784269</v>
+      </c>
+      <c r="I63">
+        <v>-0.003310370781793645</v>
+      </c>
+      <c r="J63">
+        <v>-0.01308622812050955</v>
+      </c>
+      <c r="K63">
+        <v>-0.04426566223431238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1090075483745666</v>
+        <v>0.09939452871981465</v>
       </c>
       <c r="C64">
-        <v>0.01319884758039202</v>
+        <v>-0.02410195080525393</v>
       </c>
       <c r="D64">
-        <v>-0.03522106156525757</v>
+        <v>0.006045156526873701</v>
       </c>
       <c r="E64">
-        <v>0.04466703272938689</v>
+        <v>0.03545434401245803</v>
       </c>
       <c r="F64">
-        <v>0.02346826157994693</v>
+        <v>0.03492508631337737</v>
       </c>
       <c r="G64">
-        <v>0.04873853132106659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05537497615831092</v>
+      </c>
+      <c r="H64">
+        <v>-0.04544389720768852</v>
+      </c>
+      <c r="I64">
+        <v>-0.07753531258393702</v>
+      </c>
+      <c r="J64">
+        <v>-0.007271380369244496</v>
+      </c>
+      <c r="K64">
+        <v>-0.01909953368089723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1159059680913414</v>
+        <v>0.1164253936321407</v>
       </c>
       <c r="C65">
-        <v>0.03406480384562562</v>
+        <v>-0.006528936266554165</v>
       </c>
       <c r="D65">
-        <v>-0.01648075026152862</v>
+        <v>0.005937941186924638</v>
       </c>
       <c r="E65">
-        <v>0.06841330155303463</v>
+        <v>-0.02996171198227349</v>
       </c>
       <c r="F65">
-        <v>0.2670600237546966</v>
+        <v>-0.01912942632873296</v>
       </c>
       <c r="G65">
-        <v>-0.1926846537670779</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02914459908628338</v>
+      </c>
+      <c r="H65">
+        <v>0.002328873577861173</v>
+      </c>
+      <c r="I65">
+        <v>-0.2003417553973393</v>
+      </c>
+      <c r="J65">
+        <v>-0.4882011248287709</v>
+      </c>
+      <c r="K65">
+        <v>-0.2499615376086739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1606623984476798</v>
+        <v>0.1498843561309172</v>
       </c>
       <c r="C66">
-        <v>0.04582995468521961</v>
+        <v>-0.1088398587183134</v>
       </c>
       <c r="D66">
-        <v>0.01614569201108667</v>
+        <v>-0.04151024619755403</v>
       </c>
       <c r="E66">
-        <v>0.02538978760746455</v>
+        <v>0.07612977927391187</v>
       </c>
       <c r="F66">
-        <v>-0.009554240625820365</v>
+        <v>-0.08496298185472022</v>
       </c>
       <c r="G66">
-        <v>0.2862953231963781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1208136653041644</v>
+      </c>
+      <c r="H66">
+        <v>-0.07574593427411451</v>
+      </c>
+      <c r="I66">
+        <v>-0.08916835422967669</v>
+      </c>
+      <c r="J66">
+        <v>0.2314718462077176</v>
+      </c>
+      <c r="K66">
+        <v>-0.01503610672872715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.1085036131500583</v>
+        <v>0.07930623257624531</v>
       </c>
       <c r="C67">
-        <v>0.03703756522409957</v>
+        <v>-0.05031880422699147</v>
       </c>
       <c r="D67">
-        <v>-0.02430245091919691</v>
+        <v>-0.0780958935143897</v>
       </c>
       <c r="E67">
-        <v>-0.01759964467532123</v>
+        <v>0.02489688447922241</v>
       </c>
       <c r="F67">
-        <v>-0.03009206659389058</v>
+        <v>0.02159350216218995</v>
       </c>
       <c r="G67">
-        <v>0.05115788147684535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.05954294717369877</v>
+      </c>
+      <c r="H67">
+        <v>0.01668462633336381</v>
+      </c>
+      <c r="I67">
+        <v>0.01162577955422144</v>
+      </c>
+      <c r="J67">
+        <v>0.03816232922840564</v>
+      </c>
+      <c r="K67">
+        <v>-0.02459050677408157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.03896159608288683</v>
+        <v>0.0837564168739669</v>
       </c>
       <c r="C68">
-        <v>-0.2928260560820072</v>
+        <v>0.2851654531627307</v>
       </c>
       <c r="D68">
-        <v>-0.02895008449487967</v>
+        <v>-0.004708418390278813</v>
       </c>
       <c r="E68">
-        <v>-0.008844794826692801</v>
+        <v>0.00820396240839525</v>
       </c>
       <c r="F68">
-        <v>0.01149933785762325</v>
+        <v>-0.02579471218087487</v>
       </c>
       <c r="G68">
-        <v>-0.02396431573017191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03746494712945461</v>
+      </c>
+      <c r="H68">
+        <v>-0.03057467176082063</v>
+      </c>
+      <c r="I68">
+        <v>-0.009005044794858084</v>
+      </c>
+      <c r="J68">
+        <v>-0.006892356362109196</v>
+      </c>
+      <c r="K68">
+        <v>-0.001019928581926734</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.04825631701438346</v>
+        <v>0.03777817631170343</v>
       </c>
       <c r="C69">
-        <v>0.01277475545089014</v>
+        <v>-0.00468950764562253</v>
       </c>
       <c r="D69">
-        <v>0.006086266354724259</v>
+        <v>-0.02679782844090387</v>
       </c>
       <c r="E69">
-        <v>-0.0001182087063720799</v>
+        <v>0.00880017789198739</v>
       </c>
       <c r="F69">
-        <v>-0.005219347331249443</v>
+        <v>0.00663423084618544</v>
       </c>
       <c r="G69">
-        <v>0.01911570510382334</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01940578859397377</v>
+      </c>
+      <c r="H69">
+        <v>0.0005875751570763473</v>
+      </c>
+      <c r="I69">
+        <v>0.01117616983792051</v>
+      </c>
+      <c r="J69">
+        <v>-0.01588496149930082</v>
+      </c>
+      <c r="K69">
+        <v>-0.03544349266277218</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.07614466856540146</v>
+        <v>0.04556649168693155</v>
       </c>
       <c r="C70">
-        <v>0.004812509495408555</v>
+        <v>0.0002909795405097846</v>
       </c>
       <c r="D70">
-        <v>-0.03576820897259575</v>
+        <v>-0.03142796235669626</v>
       </c>
       <c r="E70">
-        <v>-0.02310262487163156</v>
+        <v>0.04697504421543532</v>
       </c>
       <c r="F70">
-        <v>0.053710948980785</v>
+        <v>0.004091155539293075</v>
       </c>
       <c r="G70">
-        <v>-0.01723739709552898</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01143802316264556</v>
+      </c>
+      <c r="H70">
+        <v>-0.0145664484530023</v>
+      </c>
+      <c r="I70">
+        <v>-0.001228789322073467</v>
+      </c>
+      <c r="J70">
+        <v>-0.1693716457864944</v>
+      </c>
+      <c r="K70">
+        <v>0.006071396005035323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.04951109166812999</v>
+        <v>0.09796957296491809</v>
       </c>
       <c r="C71">
-        <v>-0.2968071180398457</v>
+        <v>0.2982326756490821</v>
       </c>
       <c r="D71">
-        <v>-0.04654172203569891</v>
+        <v>-0.006190838136826928</v>
       </c>
       <c r="E71">
-        <v>-0.00694487717681369</v>
+        <v>0.02612486655756618</v>
       </c>
       <c r="F71">
-        <v>0.01276008490482226</v>
+        <v>-0.001814992624309757</v>
       </c>
       <c r="G71">
-        <v>0.005951689483286786</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04525698002127929</v>
+      </c>
+      <c r="H71">
+        <v>-0.02428583976896453</v>
+      </c>
+      <c r="I71">
+        <v>-0.01838321129347982</v>
+      </c>
+      <c r="J71">
+        <v>0.02447569868983826</v>
+      </c>
+      <c r="K71">
+        <v>-0.01912611305247258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1418141524431148</v>
+        <v>0.1447352517610324</v>
       </c>
       <c r="C72">
-        <v>-0.04128322662978334</v>
+        <v>0.006578831942855953</v>
       </c>
       <c r="D72">
-        <v>0.2339378556487016</v>
+        <v>-0.01116576729096412</v>
       </c>
       <c r="E72">
-        <v>-0.01107790826527851</v>
+        <v>-0.0735805516709956</v>
       </c>
       <c r="F72">
-        <v>0.04995576394031911</v>
+        <v>-0.06451731534293857</v>
       </c>
       <c r="G72">
-        <v>0.06985211839009539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.007151120690042584</v>
+      </c>
+      <c r="H72">
+        <v>0.0234368638039297</v>
+      </c>
+      <c r="I72">
+        <v>0.0212563276668672</v>
+      </c>
+      <c r="J72">
+        <v>-0.04387163269472524</v>
+      </c>
+      <c r="K72">
+        <v>-0.1226865334707837</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.2826587983685499</v>
+        <v>0.2439913031540587</v>
       </c>
       <c r="C73">
-        <v>0.1635227963892892</v>
+        <v>-0.09280958951762561</v>
       </c>
       <c r="D73">
-        <v>-0.05039479669497465</v>
+        <v>-0.02530412993260901</v>
       </c>
       <c r="E73">
-        <v>-0.1525596536979907</v>
+        <v>0.1616063170324269</v>
       </c>
       <c r="F73">
-        <v>0.2604445806426314</v>
+        <v>0.02088036146732838</v>
       </c>
       <c r="G73">
-        <v>-0.2813324360090735</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3049998343040691</v>
+      </c>
+      <c r="H73">
+        <v>0.2742036090917235</v>
+      </c>
+      <c r="I73">
+        <v>-0.3074022161020331</v>
+      </c>
+      <c r="J73">
+        <v>0.08391691836968461</v>
+      </c>
+      <c r="K73">
+        <v>0.06758222070319823</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.1019869394867609</v>
+        <v>0.1130819048990563</v>
       </c>
       <c r="C74">
-        <v>0.03157944895589941</v>
+        <v>-0.04742414502050606</v>
       </c>
       <c r="D74">
-        <v>-0.007207044506201595</v>
+        <v>-0.02440030533704637</v>
       </c>
       <c r="E74">
-        <v>-0.03319156861927526</v>
+        <v>0.01163099227966036</v>
       </c>
       <c r="F74">
-        <v>-0.1179995402276716</v>
+        <v>0.002071236465927553</v>
       </c>
       <c r="G74">
-        <v>-0.02596516410634351</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05104507984078478</v>
+      </c>
+      <c r="H74">
+        <v>0.08497795373064275</v>
+      </c>
+      <c r="I74">
+        <v>0.1048113524922765</v>
+      </c>
+      <c r="J74">
+        <v>0.02629994536162603</v>
+      </c>
+      <c r="K74">
+        <v>-0.09950115427641282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.09413627549999065</v>
+        <v>0.1114610871150209</v>
       </c>
       <c r="C75">
-        <v>0.01927262175251024</v>
+        <v>-0.04346761217057433</v>
       </c>
       <c r="D75">
-        <v>0.02236225644856684</v>
+        <v>-0.009332458572570184</v>
       </c>
       <c r="E75">
-        <v>-0.04222114221170001</v>
+        <v>-0.004727637570276384</v>
       </c>
       <c r="F75">
-        <v>-0.1231792775508343</v>
+        <v>-0.01111952563768327</v>
       </c>
       <c r="G75">
-        <v>-0.04348940879505999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005379588082286195</v>
+      </c>
+      <c r="H75">
+        <v>0.0402643909509041</v>
+      </c>
+      <c r="I75">
+        <v>0.1605007948439921</v>
+      </c>
+      <c r="J75">
+        <v>0.01518722999269419</v>
+      </c>
+      <c r="K75">
+        <v>-0.04735356074416033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1404747873408943</v>
+        <v>0.05458041808671943</v>
       </c>
       <c r="C76">
-        <v>0.02552711864573699</v>
+        <v>-0.01348797868756208</v>
       </c>
       <c r="D76">
-        <v>-0.02107169246335508</v>
+        <v>-0.02934548173936356</v>
       </c>
       <c r="E76">
-        <v>-0.01088762199462401</v>
+        <v>0.0205499481979432</v>
       </c>
       <c r="F76">
-        <v>-0.2670516925073249</v>
+        <v>0.02365492512888655</v>
       </c>
       <c r="G76">
-        <v>-0.07390160465794708</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04229425279079398</v>
+      </c>
+      <c r="H76">
+        <v>0.04146240908875859</v>
+      </c>
+      <c r="I76">
+        <v>0.1230595782945595</v>
+      </c>
+      <c r="J76">
+        <v>0.01939973739900435</v>
+      </c>
+      <c r="K76">
+        <v>-0.09135606000979678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08281647459568936</v>
+        <v>0.07542700237466715</v>
       </c>
       <c r="C77">
-        <v>-0.001254194008086439</v>
+        <v>-0.04459759132532858</v>
       </c>
       <c r="D77">
-        <v>-0.03818081159738109</v>
+        <v>0.01661140527874442</v>
       </c>
       <c r="E77">
-        <v>0.1187456653347083</v>
+        <v>0.0164402514507624</v>
       </c>
       <c r="F77">
-        <v>0.242832327585725</v>
+        <v>0.03213696715033126</v>
       </c>
       <c r="G77">
-        <v>0.1434219360946902</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08798911502639574</v>
+      </c>
+      <c r="H77">
+        <v>-0.2095004448125824</v>
+      </c>
+      <c r="I77">
+        <v>-0.1006603095657917</v>
+      </c>
+      <c r="J77">
+        <v>-0.1107371583018861</v>
+      </c>
+      <c r="K77">
+        <v>-0.05707438266376336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.2174860272280907</v>
+        <v>0.1526786898872927</v>
       </c>
       <c r="C78">
-        <v>0.06333967031760813</v>
+        <v>-0.07941823675007206</v>
       </c>
       <c r="D78">
-        <v>-0.06600823441228547</v>
+        <v>-0.1011897873566931</v>
       </c>
       <c r="E78">
-        <v>0.2049231464357718</v>
+        <v>-0.1986893134405943</v>
       </c>
       <c r="F78">
-        <v>0.05124789312146066</v>
+        <v>0.1608049675406038</v>
       </c>
       <c r="G78">
-        <v>0.1478115115107854</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6436406865629488</v>
+      </c>
+      <c r="H78">
+        <v>-0.587320798159513</v>
+      </c>
+      <c r="I78">
+        <v>0.1693236932366611</v>
+      </c>
+      <c r="J78">
+        <v>0.09356544478569652</v>
+      </c>
+      <c r="K78">
+        <v>0.07331354872406305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1390404090055473</v>
+        <v>0.1362890421408141</v>
       </c>
       <c r="C79">
-        <v>0.008170001006117566</v>
+        <v>-0.03989442342432872</v>
       </c>
       <c r="D79">
-        <v>-0.0006008575321296262</v>
+        <v>0.007617378387930238</v>
       </c>
       <c r="E79">
-        <v>-0.02987923096562891</v>
+        <v>0.01419083455374898</v>
       </c>
       <c r="F79">
-        <v>-0.1490804386460955</v>
+        <v>-0.003379145611700296</v>
       </c>
       <c r="G79">
-        <v>0.009611548781523043</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.02506545589681515</v>
+      </c>
+      <c r="H79">
+        <v>0.04958474420283423</v>
+      </c>
+      <c r="I79">
+        <v>0.1464864520069599</v>
+      </c>
+      <c r="J79">
+        <v>0.02243285979826794</v>
+      </c>
+      <c r="K79">
+        <v>-0.1191877036355425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03356124046764117</v>
+        <v>0.06875721712536287</v>
       </c>
       <c r="C80">
-        <v>0.009432268118997307</v>
+        <v>-0.0472268398166962</v>
       </c>
       <c r="D80">
-        <v>-0.01926595779606875</v>
+        <v>-0.04614425229946531</v>
       </c>
       <c r="E80">
-        <v>-0.027244895283243</v>
+        <v>0.0480408742560713</v>
       </c>
       <c r="F80">
-        <v>0.03407175521090925</v>
+        <v>-0.02430172851432799</v>
       </c>
       <c r="G80">
-        <v>0.06925240258936556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0390657019043763</v>
+      </c>
+      <c r="H80">
+        <v>-0.0792209699109096</v>
+      </c>
+      <c r="I80">
+        <v>0.07755362537509955</v>
+      </c>
+      <c r="J80">
+        <v>-0.07254003620884683</v>
+      </c>
+      <c r="K80">
+        <v>0.2157600914989354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1139088627363767</v>
+        <v>0.1327679991092998</v>
       </c>
       <c r="C81">
-        <v>0.002409122649221753</v>
+        <v>-0.04716539728460686</v>
       </c>
       <c r="D81">
-        <v>-0.01241573367275436</v>
+        <v>-0.008265019389601705</v>
       </c>
       <c r="E81">
-        <v>-0.02239931575101204</v>
+        <v>0.01263013914083953</v>
       </c>
       <c r="F81">
-        <v>-0.1359140181190807</v>
+        <v>0.007852011417488263</v>
       </c>
       <c r="G81">
-        <v>-0.02541230153114512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.04534432043534306</v>
+      </c>
+      <c r="H81">
+        <v>0.02745605273482249</v>
+      </c>
+      <c r="I81">
+        <v>0.1396983804585904</v>
+      </c>
+      <c r="J81">
+        <v>0.04312913312627038</v>
+      </c>
+      <c r="K81">
+        <v>-0.08668150664332167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1130582298933487</v>
+        <v>0.1464305740776251</v>
       </c>
       <c r="C82">
-        <v>0.02224195932801414</v>
+        <v>-0.0374047853758365</v>
       </c>
       <c r="D82">
-        <v>-0.05138828059507562</v>
+        <v>-0.01718545419923121</v>
       </c>
       <c r="E82">
-        <v>-0.06970898923916992</v>
+        <v>0.06109869484921988</v>
       </c>
       <c r="F82">
-        <v>-0.2440589384252713</v>
+        <v>-0.007168063557118959</v>
       </c>
       <c r="G82">
-        <v>0.02049939677811211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.05068723055250191</v>
+      </c>
+      <c r="H82">
+        <v>0.120920660923469</v>
+      </c>
+      <c r="I82">
+        <v>0.2663970793955689</v>
+      </c>
+      <c r="J82">
+        <v>0.08784637615808025</v>
+      </c>
+      <c r="K82">
+        <v>-0.02628074348137205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.1066601251864196</v>
+        <v>0.09832277094044592</v>
       </c>
       <c r="C83">
-        <v>0.0520214187028594</v>
+        <v>-0.09098440750661939</v>
       </c>
       <c r="D83">
-        <v>-0.05789466495986447</v>
+        <v>0.01102350662385129</v>
       </c>
       <c r="E83">
-        <v>-0.01080034637536875</v>
+        <v>-0.001841677978855475</v>
       </c>
       <c r="F83">
-        <v>0.06637794112537256</v>
+        <v>0.0142572217654193</v>
       </c>
       <c r="G83">
-        <v>0.0756163628745681</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06754422970771461</v>
+      </c>
+      <c r="H83">
+        <v>-0.0744454839897543</v>
+      </c>
+      <c r="I83">
+        <v>0.02582152955054192</v>
+      </c>
+      <c r="J83">
+        <v>-0.1977536778256256</v>
+      </c>
+      <c r="K83">
+        <v>0.09707793165249955</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05109507230634262</v>
+        <v>0.0605548071033092</v>
       </c>
       <c r="C84">
-        <v>0.01648762402303394</v>
+        <v>-0.001259684571889833</v>
       </c>
       <c r="D84">
-        <v>0.05438138812300618</v>
+        <v>0.02493407497640128</v>
       </c>
       <c r="E84">
-        <v>0.02106494749667797</v>
+        <v>0.02649774161445892</v>
       </c>
       <c r="F84">
-        <v>-0.05571274972684471</v>
+        <v>-0.02028433347152808</v>
       </c>
       <c r="G84">
-        <v>-0.03777690630653584</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.0004577179801020747</v>
+      </c>
+      <c r="H84">
+        <v>0.008514196835440061</v>
+      </c>
+      <c r="I84">
+        <v>-0.1257056327461951</v>
+      </c>
+      <c r="J84">
+        <v>0.2100754320903342</v>
+      </c>
+      <c r="K84">
+        <v>0.4497985985561996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1016489621850628</v>
+        <v>0.1195116731394913</v>
       </c>
       <c r="C85">
-        <v>0.0215132874640548</v>
+        <v>-0.03366465783835985</v>
       </c>
       <c r="D85">
-        <v>-0.02743880207611346</v>
+        <v>-0.005086566037816836</v>
       </c>
       <c r="E85">
-        <v>-0.03126918775564112</v>
+        <v>0.03712931945711272</v>
       </c>
       <c r="F85">
-        <v>-0.191971291194079</v>
+        <v>0.01378933525947125</v>
       </c>
       <c r="G85">
-        <v>0.007781474354854656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03184883126647033</v>
+      </c>
+      <c r="H85">
+        <v>0.03544836553235928</v>
+      </c>
+      <c r="I85">
+        <v>0.185052218211531</v>
+      </c>
+      <c r="J85">
+        <v>0.02853942347721151</v>
+      </c>
+      <c r="K85">
+        <v>-0.08872051489275769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.06887051356351336</v>
+        <v>0.1326551094833186</v>
       </c>
       <c r="C86">
-        <v>0.02036211186525711</v>
+        <v>-0.04333655205641364</v>
       </c>
       <c r="D86">
-        <v>-0.05539252268783607</v>
+        <v>0.931689885023349</v>
       </c>
       <c r="E86">
-        <v>0.0608275141310007</v>
+        <v>-0.2003933556423212</v>
       </c>
       <c r="F86">
-        <v>0.01395230518971587</v>
+        <v>0.008956567903281082</v>
       </c>
       <c r="G86">
-        <v>0.09243363123902985</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04698002041168967</v>
+      </c>
+      <c r="H86">
+        <v>-0.05104350374950047</v>
+      </c>
+      <c r="I86">
+        <v>0.07466209473323725</v>
+      </c>
+      <c r="J86">
+        <v>0.03015293288137892</v>
+      </c>
+      <c r="K86">
+        <v>0.09547897036139073</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.101512165702288</v>
+        <v>0.1168304900926613</v>
       </c>
       <c r="C87">
-        <v>0.06222534609633388</v>
+        <v>-0.09550646557537351</v>
       </c>
       <c r="D87">
-        <v>-0.01500491565713991</v>
+        <v>-0.003712359353196323</v>
       </c>
       <c r="E87">
-        <v>0.07603499094110121</v>
+        <v>0.01908095097480554</v>
       </c>
       <c r="F87">
-        <v>0.04505737793455696</v>
+        <v>0.0215473653074508</v>
       </c>
       <c r="G87">
-        <v>0.1112442232585489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08029439024243618</v>
+      </c>
+      <c r="H87">
+        <v>-0.1120395624564374</v>
+      </c>
+      <c r="I87">
+        <v>-0.01424342607694523</v>
+      </c>
+      <c r="J87">
+        <v>-0.1579238359444526</v>
+      </c>
+      <c r="K87">
+        <v>0.009425031458233401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.06965002424880429</v>
+        <v>0.05739635435826133</v>
       </c>
       <c r="C88">
-        <v>0.04045632420907751</v>
+        <v>-0.03900206860780663</v>
       </c>
       <c r="D88">
-        <v>-0.01849094406013408</v>
+        <v>-0.01488933527272119</v>
       </c>
       <c r="E88">
-        <v>0.01198917685010263</v>
+        <v>0.04257735964605204</v>
       </c>
       <c r="F88">
-        <v>-0.01269249080332852</v>
+        <v>-0.02484880131820633</v>
       </c>
       <c r="G88">
-        <v>0.05603905809529273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01993084656107379</v>
+      </c>
+      <c r="H88">
+        <v>-0.02166493345742476</v>
+      </c>
+      <c r="I88">
+        <v>-0.001354103397865867</v>
+      </c>
+      <c r="J88">
+        <v>0.002738159276169842</v>
+      </c>
+      <c r="K88">
+        <v>-0.03101408221495071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.09522994149052873</v>
+        <v>0.1499535773055198</v>
       </c>
       <c r="C89">
-        <v>-0.3769620081928299</v>
+        <v>0.376088958389153</v>
       </c>
       <c r="D89">
-        <v>-0.1028084435519854</v>
+        <v>-0.008638403630131254</v>
       </c>
       <c r="E89">
-        <v>0.0158034343406158</v>
+        <v>0.01796849749796473</v>
       </c>
       <c r="F89">
-        <v>0.02380551074760338</v>
+        <v>0.06823047546328469</v>
       </c>
       <c r="G89">
-        <v>-0.003364591867737467</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.00113216951683181</v>
+      </c>
+      <c r="H89">
+        <v>-0.04264663442725301</v>
+      </c>
+      <c r="I89">
+        <v>-0.01275212272989563</v>
+      </c>
+      <c r="J89">
+        <v>0.0003745240104226824</v>
+      </c>
+      <c r="K89">
+        <v>0.07126538202642158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.07312638345871306</v>
+        <v>0.1138760509712023</v>
       </c>
       <c r="C90">
-        <v>-0.291596620684803</v>
+        <v>0.284785314902412</v>
       </c>
       <c r="D90">
-        <v>-0.04428733334407764</v>
+        <v>0.00194611581955024</v>
       </c>
       <c r="E90">
-        <v>0.05402320501903427</v>
+        <v>0.02856422831739339</v>
       </c>
       <c r="F90">
-        <v>0.04661108413846368</v>
+        <v>-0.001352329661307105</v>
       </c>
       <c r="G90">
-        <v>0.03410466365007864</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04926747176921563</v>
+      </c>
+      <c r="H90">
+        <v>-0.03912824591445282</v>
+      </c>
+      <c r="I90">
+        <v>-0.04672409905464646</v>
+      </c>
+      <c r="J90">
+        <v>0.01308717747811722</v>
+      </c>
+      <c r="K90">
+        <v>0.03684520343700805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.08241048507026821</v>
+        <v>0.08364876487989023</v>
       </c>
       <c r="C91">
-        <v>0.02013809638304963</v>
+        <v>-0.03764829504129157</v>
       </c>
       <c r="D91">
-        <v>-0.01004279259897472</v>
+        <v>0.0134070010044986</v>
       </c>
       <c r="E91">
-        <v>-0.02276052139816894</v>
+        <v>0.01580907627139544</v>
       </c>
       <c r="F91">
-        <v>-0.09697194934720967</v>
+        <v>0.0127361365776104</v>
       </c>
       <c r="G91">
-        <v>-0.05299933525307505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0138819725505619</v>
+      </c>
+      <c r="H91">
+        <v>0.0471098228896995</v>
+      </c>
+      <c r="I91">
+        <v>0.1147225839809917</v>
+      </c>
+      <c r="J91">
+        <v>0.009506294959958047</v>
+      </c>
+      <c r="K91">
+        <v>-0.0499954199440989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.06831185030243515</v>
+        <v>0.12381737979363</v>
       </c>
       <c r="C92">
-        <v>-0.3446142716885897</v>
+        <v>0.338345449269919</v>
       </c>
       <c r="D92">
-        <v>-0.07222203605110207</v>
+        <v>-0.006670867295848922</v>
       </c>
       <c r="E92">
-        <v>0.02661359390265678</v>
+        <v>0.001287514083890758</v>
       </c>
       <c r="F92">
-        <v>0.05686735283243999</v>
+        <v>0.03587352421709463</v>
       </c>
       <c r="G92">
-        <v>-0.02922236383781808</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02012403560191117</v>
+      </c>
+      <c r="H92">
+        <v>-0.07295464904235495</v>
+      </c>
+      <c r="I92">
+        <v>0.01593619656661857</v>
+      </c>
+      <c r="J92">
+        <v>0.03331588769574402</v>
+      </c>
+      <c r="K92">
+        <v>0.01931152342298176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.0848594981869952</v>
+        <v>0.1190648276895213</v>
       </c>
       <c r="C93">
-        <v>-0.2997379042440623</v>
+        <v>0.3189165547207898</v>
       </c>
       <c r="D93">
-        <v>-0.04289526146268437</v>
+        <v>0.01849777703598404</v>
       </c>
       <c r="E93">
-        <v>0.0217258091351766</v>
+        <v>0.04759369684000957</v>
       </c>
       <c r="F93">
-        <v>0.04070880065012568</v>
+        <v>-0.01162723206393723</v>
       </c>
       <c r="G93">
-        <v>-0.02759956812080554</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04018106204075125</v>
+      </c>
+      <c r="H93">
+        <v>-0.001734152531219382</v>
+      </c>
+      <c r="I93">
+        <v>-0.02002070094894516</v>
+      </c>
+      <c r="J93">
+        <v>-0.000539190395898316</v>
+      </c>
+      <c r="K93">
+        <v>0.03035969332504719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.09488561961180579</v>
+        <v>0.1270901161329492</v>
       </c>
       <c r="C94">
-        <v>0.04642931716475001</v>
+        <v>-0.05167479610092288</v>
       </c>
       <c r="D94">
-        <v>0.007322982650926855</v>
+        <v>-0.03009338588003119</v>
       </c>
       <c r="E94">
-        <v>-0.01332508185584618</v>
+        <v>0.009315277251751949</v>
       </c>
       <c r="F94">
-        <v>-0.1492089111188449</v>
+        <v>0.01839857214224377</v>
       </c>
       <c r="G94">
-        <v>-0.05272462833249235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01060229662320742</v>
+      </c>
+      <c r="H94">
+        <v>0.08012376258257234</v>
+      </c>
+      <c r="I94">
+        <v>0.1207450732227641</v>
+      </c>
+      <c r="J94">
+        <v>0.05349954505817273</v>
+      </c>
+      <c r="K94">
+        <v>-0.04735043058023537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1288892895708659</v>
+        <v>0.1190606925010336</v>
       </c>
       <c r="C95">
-        <v>0.08026975238902653</v>
+        <v>-0.05375371603845798</v>
       </c>
       <c r="D95">
-        <v>-0.06137815071967251</v>
+        <v>-0.01597598985084694</v>
       </c>
       <c r="E95">
-        <v>0.06742088979544877</v>
+        <v>0.02053104666190638</v>
       </c>
       <c r="F95">
-        <v>0.1044031437608153</v>
+        <v>0.06235445044485737</v>
       </c>
       <c r="G95">
-        <v>0.1177607162780048</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.008718798772797357</v>
+      </c>
+      <c r="H95">
+        <v>-0.1247947910811707</v>
+      </c>
+      <c r="I95">
+        <v>-0.1581218675901489</v>
+      </c>
+      <c r="J95">
+        <v>-0.05240662889906155</v>
+      </c>
+      <c r="K95">
+        <v>0.09701097218597893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.009769462633317426</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.001383462798655742</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0005331872401962072</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.005736179648885412</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.003910285323878603</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.0007992986020483011</v>
+      </c>
+      <c r="H96">
+        <v>-0.0168832106670145</v>
+      </c>
+      <c r="I96">
+        <v>-0.01094357633995675</v>
+      </c>
+      <c r="J96">
+        <v>-0.01441160380427182</v>
+      </c>
+      <c r="K96">
+        <v>-0.02027406203100393</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.1940611303919575</v>
+        <v>0.184360721654735</v>
       </c>
       <c r="C97">
-        <v>-0.1297387974811806</v>
+        <v>0.007628754967224004</v>
       </c>
       <c r="D97">
-        <v>0.9095873974705559</v>
+        <v>-0.1732330987590415</v>
       </c>
       <c r="E97">
-        <v>0.02336875610982794</v>
+        <v>-0.7571644279905596</v>
       </c>
       <c r="F97">
-        <v>0.03425922060005675</v>
+        <v>-0.5384642158873767</v>
       </c>
       <c r="G97">
-        <v>0.02451332055038168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03445462205576693</v>
+      </c>
+      <c r="H97">
+        <v>0.1155739570435233</v>
+      </c>
+      <c r="I97">
+        <v>-0.08529187593995212</v>
+      </c>
+      <c r="J97">
+        <v>0.04913343913255688</v>
+      </c>
+      <c r="K97">
+        <v>0.01272932453382853</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.3193902696256564</v>
+        <v>0.2665191995135314</v>
       </c>
       <c r="C98">
-        <v>0.06561762872323866</v>
+        <v>-0.04106532235437212</v>
       </c>
       <c r="D98">
-        <v>-0.05131688892395918</v>
+        <v>0.009483326924182033</v>
       </c>
       <c r="E98">
-        <v>-0.2508667394509604</v>
+        <v>0.02292626801930202</v>
       </c>
       <c r="F98">
-        <v>0.1830473028327656</v>
+        <v>0.04464759152517089</v>
       </c>
       <c r="G98">
-        <v>-0.2856144460405989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2609166646086001</v>
+      </c>
+      <c r="H98">
+        <v>0.2553106353848467</v>
+      </c>
+      <c r="I98">
+        <v>0.115726286578406</v>
+      </c>
+      <c r="J98">
+        <v>-0.3196279995318805</v>
+      </c>
+      <c r="K98">
+        <v>0.2591596019876899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.08781009647106799</v>
+        <v>0.05451495083764193</v>
       </c>
       <c r="C99">
-        <v>0.02341652954894181</v>
+        <v>-0.005744225321686193</v>
       </c>
       <c r="D99">
-        <v>-0.007782401952771256</v>
+        <v>-0.03255936234773513</v>
       </c>
       <c r="E99">
-        <v>-0.01224418599232191</v>
+        <v>0.002050454996216518</v>
       </c>
       <c r="F99">
-        <v>0.01239648788698584</v>
+        <v>0.02026353686096586</v>
       </c>
       <c r="G99">
-        <v>0.02610157167145752</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01431065538910994</v>
+      </c>
+      <c r="H99">
+        <v>-0.01203110272115757</v>
+      </c>
+      <c r="I99">
+        <v>-0.008388799688370412</v>
+      </c>
+      <c r="J99">
+        <v>0.02378140167311032</v>
+      </c>
+      <c r="K99">
+        <v>-0.06112758775334304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.03019535367670488</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.03721325214768723</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1631913074799635</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.02181791465444814</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.04947437718930858</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.1464910740549231</v>
+      </c>
+      <c r="H100">
+        <v>0.05877389530799629</v>
+      </c>
+      <c r="I100">
+        <v>0.243244754967507</v>
+      </c>
+      <c r="J100">
+        <v>-0.2031320957757066</v>
+      </c>
+      <c r="K100">
+        <v>0.5822109481230042</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05919709849741722</v>
+        <v>0.03840651083604358</v>
       </c>
       <c r="C101">
-        <v>0.004826896562023423</v>
+        <v>-0.01447557917595364</v>
       </c>
       <c r="D101">
-        <v>-0.02867318878954519</v>
+        <v>-0.001766865705054803</v>
       </c>
       <c r="E101">
-        <v>0.04177924042827778</v>
+        <v>0.02979343533918217</v>
       </c>
       <c r="F101">
-        <v>-0.03216235681959077</v>
+        <v>0.003888760316072553</v>
       </c>
       <c r="G101">
-        <v>0.04190419469976757</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.08276636698546701</v>
+      </c>
+      <c r="H101">
+        <v>-0.04425782856951226</v>
+      </c>
+      <c r="I101">
+        <v>0.02363615554065752</v>
+      </c>
+      <c r="J101">
+        <v>-0.04118497818535283</v>
+      </c>
+      <c r="K101">
+        <v>-0.04346982147757419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
